--- a/data/excel/2025/08/13.xlsx
+++ b/data/excel/2025/08/13.xlsx
@@ -52,6 +52,9 @@
     <t>63.60</t>
   </si>
   <si>
+    <t>30.80</t>
+  </si>
+  <si>
     <t>Tomato Small(Local)</t>
   </si>
   <si>
@@ -61,7 +64,10 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>30.80</t>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>41.20</t>
   </si>
   <si>
     <t>Tomato Small(Tunnel)</t>
@@ -70,22 +76,22 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>41.20</t>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
   </si>
   <si>
     <t>Potato Red</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>50.00</t>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>28.00</t>
   </si>
   <si>
     <t>29.80</t>
@@ -94,22 +100,19 @@
     <t>Potato Red(Indian)</t>
   </si>
   <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>28.00</t>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>Potato Red(Mude)</t>
   </si>
   <si>
     <t>44.00</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>Potato Red(Mude)</t>
+    <t>Potato White</t>
   </si>
   <si>
     <t>40.00</t>
@@ -121,9 +124,6 @@
     <t>38.50</t>
   </si>
   <si>
-    <t>Potato White</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -154,6 +154,9 @@
     <t>Carrot(Terai)</t>
   </si>
   <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>Cabbage(Local)</t>
   </si>
   <si>
@@ -163,7 +166,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>20.00</t>
+    <t>Cauli Local</t>
   </si>
   <si>
     <t>110.00</t>
@@ -172,9 +175,6 @@
     <t>105.00</t>
   </si>
   <si>
-    <t>Cauli Local</t>
-  </si>
-  <si>
     <t>Cauli Terai</t>
   </si>
   <si>
@@ -184,37 +184,40 @@
     <t>85.00</t>
   </si>
   <si>
+    <t>Raddish Red</t>
+  </si>
+  <si>
     <t>55.00</t>
   </si>
   <si>
-    <t>Raddish Red</t>
-  </si>
-  <si>
     <t>Raddish White(Hybrid)</t>
   </si>
   <si>
+    <t>Brinjal Long</t>
+  </si>
+  <si>
     <t>23.00</t>
   </si>
   <si>
-    <t>Brinjal Long</t>
-  </si>
-  <si>
     <t>Brinjal Round</t>
   </si>
   <si>
     <t>30.00</t>
   </si>
   <si>
+    <t>91.00</t>
+  </si>
+  <si>
     <t>Cow pea(Long)</t>
   </si>
   <si>
-    <t>91.00</t>
+    <t>Cowpea(Short)</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>Cowpea(Short)</t>
+    <t>French Bean(Local)</t>
   </si>
   <si>
     <t>75.00</t>
@@ -223,12 +226,12 @@
     <t>81.00</t>
   </si>
   <si>
-    <t>French Bean(Local)</t>
-  </si>
-  <si>
     <t>French Bean(Hybrid)</t>
   </si>
   <si>
+    <t>135.00</t>
+  </si>
+  <si>
     <t>French Bean(Rajma)</t>
   </si>
   <si>
@@ -238,30 +241,27 @@
     <t>130.00</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>Sword Bean</t>
   </si>
   <si>
     <t>84.00</t>
   </si>
   <si>
+    <t>Soyabean Green</t>
+  </si>
+  <si>
     <t>108.00</t>
   </si>
   <si>
-    <t>Soyabean Green</t>
-  </si>
-  <si>
     <t>Bitter Gourd</t>
   </si>
   <si>
+    <t>Bottle Gourd</t>
+  </si>
+  <si>
     <t>63.00</t>
   </si>
   <si>
-    <t>Bottle Gourd</t>
-  </si>
-  <si>
     <t>Pointed Gourd(Local)</t>
   </si>
   <si>
@@ -301,24 +301,24 @@
     <t>Squash(Round)</t>
   </si>
   <si>
+    <t>59.00</t>
+  </si>
+  <si>
     <t>Okara</t>
   </si>
   <si>
-    <t>59.00</t>
+    <t>Arum</t>
   </si>
   <si>
     <t>68.00</t>
   </si>
   <si>
-    <t>Arum</t>
+    <t>Christophine</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>Christophine</t>
-  </si>
-  <si>
     <t>Brd Leaf Mustard</t>
   </si>
   <si>
@@ -331,19 +331,25 @@
     <t>71.00</t>
   </si>
   <si>
+    <t>86.00</t>
+  </si>
+  <si>
     <t>Onion Green</t>
   </si>
   <si>
-    <t>86.00</t>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>Mushroom(Kanya)</t>
   </si>
   <si>
     <t>160.00</t>
   </si>
   <si>
-    <t>154.00</t>
-  </si>
-  <si>
-    <t>Mushroom(Kanya)</t>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
   </si>
   <si>
     <t>376.00</t>
@@ -352,10 +358,7 @@
     <t>Mushroom(Button)</t>
   </si>
   <si>
-    <t>400.00</t>
-  </si>
-  <si>
-    <t>350.00</t>
+    <t>Asparagus</t>
   </si>
   <si>
     <t>380.00</t>
@@ -367,15 +370,15 @@
     <t>356.00</t>
   </si>
   <si>
-    <t>Asparagus</t>
-  </si>
-  <si>
     <t>Neuro</t>
   </si>
   <si>
     <t>77.00</t>
   </si>
   <si>
+    <t>234.00</t>
+  </si>
+  <si>
     <t>Brocauli</t>
   </si>
   <si>
@@ -385,9 +388,6 @@
     <t>200.00</t>
   </si>
   <si>
-    <t>234.00</t>
-  </si>
-  <si>
     <t>Sugarbeet</t>
   </si>
   <si>
@@ -406,15 +406,18 @@
     <t>Red Cabbbage</t>
   </si>
   <si>
+    <t>87.50</t>
+  </si>
+  <si>
     <t>Lettuce</t>
   </si>
   <si>
-    <t>87.50</t>
-  </si>
-  <si>
     <t>Celery</t>
   </si>
   <si>
+    <t>1200.00</t>
+  </si>
+  <si>
     <t>Parseley</t>
   </si>
   <si>
@@ -424,27 +427,24 @@
     <t>1100.00</t>
   </si>
   <si>
-    <t>1200.00</t>
+    <t>125.00</t>
   </si>
   <si>
     <t>Fennel Leaf</t>
   </si>
   <si>
-    <t>125.00</t>
+    <t>300.00</t>
   </si>
   <si>
     <t>Mint</t>
   </si>
   <si>
-    <t>300.00</t>
+    <t>185.00</t>
   </si>
   <si>
     <t>Tamarind</t>
   </si>
   <si>
-    <t>185.00</t>
-  </si>
-  <si>
     <t>Bamboo Shoot</t>
   </si>
   <si>
@@ -460,22 +460,25 @@
     <t>Gundruk</t>
   </si>
   <si>
+    <t>Apple(Jholey)</t>
+  </si>
+  <si>
     <t>220.00</t>
   </si>
   <si>
     <t>235.00</t>
   </si>
   <si>
-    <t>Apple(Jholey)</t>
+    <t>316.00</t>
+  </si>
+  <si>
+    <t>Apple(Fuji)</t>
   </si>
   <si>
     <t>280.00</t>
   </si>
   <si>
-    <t>316.00</t>
-  </si>
-  <si>
-    <t>Apple(Fuji)</t>
+    <t>Banana</t>
   </si>
   <si>
     <t>Per Dozen</t>
@@ -487,9 +490,6 @@
     <t>140.20</t>
   </si>
   <si>
-    <t>Banana</t>
-  </si>
-  <si>
     <t>Lime</t>
   </si>
   <si>
@@ -547,12 +547,12 @@
     <t>Pear(Local)</t>
   </si>
   <si>
+    <t>Pear(Chinese)</t>
+  </si>
+  <si>
     <t>236.00</t>
   </si>
   <si>
-    <t>Pear(Chinese)</t>
-  </si>
-  <si>
     <t>Papaya(Nepali)</t>
   </si>
   <si>
@@ -568,33 +568,33 @@
     <t>Guava</t>
   </si>
   <si>
+    <t>Mombin</t>
+  </si>
+  <si>
     <t>67.00</t>
   </si>
   <si>
-    <t>Mombin</t>
-  </si>
-  <si>
     <t>Kiwi</t>
   </si>
   <si>
+    <t>286.00</t>
+  </si>
+  <si>
     <t>Avocado</t>
   </si>
   <si>
-    <t>286.00</t>
-  </si>
-  <si>
     <t>Ginger</t>
   </si>
   <si>
     <t>Chilli Dry</t>
   </si>
   <si>
+    <t>Chilli Green</t>
+  </si>
+  <si>
     <t>53.00</t>
   </si>
   <si>
-    <t>Chilli Green</t>
-  </si>
-  <si>
     <t>Chilli Green(Bullet)</t>
   </si>
   <si>
@@ -634,33 +634,33 @@
     <t>Clive Green</t>
   </si>
   <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
     <t>Fish Dry</t>
   </si>
   <si>
-    <t>1000.00</t>
-  </si>
-  <si>
-    <t>800.00</t>
-  </si>
-  <si>
-    <t>900.00</t>
-  </si>
-  <si>
     <t>Fish Fresh(Rahu)</t>
   </si>
   <si>
     <t>320.00</t>
   </si>
   <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
     <t>Fish Fresh(Bachuwa)</t>
   </si>
   <si>
-    <t>260.00</t>
-  </si>
-  <si>
-    <t>270.00</t>
-  </si>
-  <si>
     <t>Fish Fresh(Chhadi)</t>
   </si>
   <si>
@@ -679,10 +679,10 @@
     <t>Kg</t>
   </si>
   <si>
+    <t>950.00</t>
+  </si>
+  <si>
     <t>Lentinula Edodes</t>
-  </si>
-  <si>
-    <t>950.00</t>
   </si>
 </sst>
 </file>
@@ -1037,19 +1037,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1057,19 +1057,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1077,19 +1077,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1097,19 +1097,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1117,19 +1117,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1137,19 +1137,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1166,7 +1166,7 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -1217,19 +1217,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -1237,19 +1237,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -1277,7 +1277,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1286,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -1303,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1317,19 +1317,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -1343,13 +1343,13 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1369,7 +1369,7 @@
         <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1389,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -1397,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1406,10 +1406,10 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -1437,19 +1437,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -1477,7 +1477,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1489,7 +1489,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -1503,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1517,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1529,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -1583,13 +1583,13 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -1603,10 +1603,10 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
         <v>86</v>
@@ -1643,10 +1643,10 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
         <v>90</v>
@@ -1666,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -1686,7 +1686,7 @@
         <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
         <v>93</v>
@@ -1697,7 +1697,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1706,10 +1706,10 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1729,7 +1729,7 @@
         <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -1737,19 +1737,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -1803,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1817,7 +1817,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1829,7 +1829,7 @@
         <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
@@ -1837,19 +1837,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
         <v>109</v>
       </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" t="s">
         <v>107</v>
-      </c>
-      <c r="E43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="44">
@@ -1857,19 +1857,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
         <v>111</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>112</v>
-      </c>
-      <c r="E44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45">
@@ -1877,19 +1877,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" t="s">
         <v>117</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -1917,19 +1917,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
         <v>120</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -1963,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
         <v>126</v>
@@ -1983,10 +1983,10 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
         <v>128</v>
@@ -1997,7 +1997,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -2009,7 +2009,7 @@
         <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -2023,13 +2023,13 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" t="s">
         <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
@@ -2037,19 +2037,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" t="s">
         <v>133</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="54">
@@ -2057,19 +2057,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E54" t="s">
         <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
@@ -2077,19 +2077,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
         <v>139</v>
       </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" t="s">
-        <v>140</v>
-      </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56">
@@ -2097,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -2109,7 +2109,7 @@
         <v>126</v>
       </c>
       <c r="F56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57">
@@ -2129,7 +2129,7 @@
         <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58">
@@ -2163,10 +2163,10 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
         <v>146</v>
@@ -2177,19 +2177,19 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" t="s">
         <v>150</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" t="s">
-        <v>148</v>
-      </c>
-      <c r="F60" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="61">
@@ -2197,19 +2197,19 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
         <v>153</v>
       </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>151</v>
-      </c>
-      <c r="F61" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="62">
@@ -2217,19 +2217,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" t="s">
         <v>157</v>
-      </c>
-      <c r="C62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="63">
@@ -2263,10 +2263,10 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
         <v>162</v>
@@ -2283,10 +2283,10 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
         <v>163</v>
@@ -2303,10 +2303,10 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F66" t="s">
         <v>165</v>
@@ -2323,7 +2323,7 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -2343,10 +2343,10 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F68" t="s">
         <v>159</v>
@@ -2363,13 +2363,13 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70">
@@ -2383,10 +2383,10 @@
         <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F70" t="s">
         <v>159</v>
@@ -2403,13 +2403,13 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -2423,13 +2423,13 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
@@ -2443,13 +2443,13 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -2477,19 +2477,19 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" t="s">
+        <v>149</v>
+      </c>
+      <c r="F75" t="s">
         <v>178</v>
-      </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" t="s">
-        <v>121</v>
-      </c>
-      <c r="E75" t="s">
-        <v>148</v>
-      </c>
-      <c r="F75" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="76">
@@ -2543,10 +2543,10 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
         <v>182</v>
@@ -2557,7 +2557,7 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -2569,7 +2569,7 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80">
@@ -2583,13 +2583,13 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" t="s">
         <v>112</v>
-      </c>
-      <c r="E80" t="s">
-        <v>113</v>
-      </c>
-      <c r="F80" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="81">
@@ -2597,19 +2597,19 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" t="s">
         <v>187</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" t="s">
-        <v>121</v>
-      </c>
-      <c r="F81" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="82">
@@ -2643,13 +2643,13 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84">
@@ -2657,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -2666,10 +2666,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85">
@@ -2683,13 +2683,13 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -2709,7 +2709,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87">
@@ -2723,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E87" t="s">
         <v>126</v>
@@ -2746,10 +2746,10 @@
         <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89">
@@ -2766,10 +2766,10 @@
         <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F89" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90">
@@ -2786,7 +2786,7 @@
         <v>200</v>
       </c>
       <c r="E90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F90" t="s">
         <v>201</v>
@@ -2803,7 +2803,7 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E91" t="s">
         <v>126</v>
@@ -2823,10 +2823,10 @@
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F92" t="s">
         <v>159</v>
@@ -2843,7 +2843,7 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E93" t="s">
         <v>126</v>
@@ -2863,13 +2863,13 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E94" t="s">
         <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95">
@@ -2877,19 +2877,19 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
         <v>206</v>
       </c>
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>207</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>208</v>
-      </c>
-      <c r="F95" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="96">
@@ -2903,7 +2903,7 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E96" t="s">
         <v>211</v>
@@ -2917,19 +2917,19 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>153</v>
+      </c>
+      <c r="E97" t="s">
         <v>212</v>
       </c>
-      <c r="C97" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>213</v>
-      </c>
-      <c r="F97" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="98">
@@ -2946,7 +2946,7 @@
         <v>216</v>
       </c>
       <c r="E98" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F98" t="s">
         <v>217</v>
@@ -2963,10 +2963,10 @@
         <v>220</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E99" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F99" t="s">
         <v>218</v>
@@ -2977,19 +2977,19 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C100" t="s">
         <v>220</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
